--- a/TestData/bill.xlsx
+++ b/TestData/bill.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XPO8584\IdeaProjects\Travelomind\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB3068-4C50-413B-B8A4-F4F07903DF45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C317BDA7-FEAE-4AC9-909B-538638243393}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="3" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="ModifySearch" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +96,66 @@
   </si>
   <si>
     <t>2: 02</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Dmonth</t>
+  </si>
+  <si>
+    <t>Dyear</t>
+  </si>
+  <si>
+    <t>Amonth</t>
+  </si>
+  <si>
+    <t>Ayear</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>TC id</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ModifySearch</t>
+  </si>
+  <si>
+    <t>BillCountry</t>
+  </si>
+  <si>
+    <t>BillState</t>
+  </si>
+  <si>
+    <t>99: Object</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>DobYear</t>
+  </si>
+  <si>
+    <t>DobMonth</t>
   </si>
 </sst>
 </file>
@@ -129,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -138,6 +200,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,11 +486,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0845935-9E4A-4B15-AC85-C7FE7F857251}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,9 +544,13 @@
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +593,23 @@
       <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -521,10 +651,83 @@
       </c>
       <c r="N2" t="s">
         <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2">
+        <v>1992</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA00E0B-9C47-403C-86BF-BF66E80CC02B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="6">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/bill.xlsx
+++ b/TestData/bill.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XPO8584\IdeaProjects\Travelomind\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C317BDA7-FEAE-4AC9-909B-538638243393}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD01BD4A-0BBA-4992-8B54-37EA4640113F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
-    <sheet name="ModifySearch" sheetId="2" r:id="rId3"/>
+    <sheet name="BookRoundTrip" sheetId="2" r:id="rId3"/>
+    <sheet name="BookOneWayTrip" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -119,9 +120,6 @@
     <t>Ayear</t>
   </si>
   <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
     <t>TC id</t>
   </si>
   <si>
@@ -156,6 +154,9 @@
   </si>
   <si>
     <t>DobMonth</t>
+  </si>
+  <si>
+    <t>Tokyo all</t>
   </si>
 </sst>
 </file>
@@ -501,26 +502,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
@@ -594,19 +595,19 @@
         <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -653,13 +654,13 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R2">
         <v>1992</v>
@@ -679,7 +680,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +713,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6">
         <v>10</v>
@@ -724,6 +725,55 @@
         <v>11</v>
       </c>
       <c r="F2" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAADA3A-59E4-4F3F-BF4A-56E4901FB390}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6">
         <v>2019</v>
       </c>
     </row>
